--- a/medicine/Enfance/Oleg_Iourievitch_Roï/Oleg_Iourievitch_Roï.xlsx
+++ b/medicine/Enfance/Oleg_Iourievitch_Roï/Oleg_Iourievitch_Roï.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oleg_Iourievitch_Ro%C3%AF</t>
+          <t>Oleg_Iourievitch_Roï</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oleg Iourievitch Roï (en russe : Оле́г Ю́рьевич Рой, de son vrai nom - Rezepkine ; né le 12 octobre 1965 à Magnitogorsk), est un écrivain, scénariste, producteur et personnage public russe, membre du conseil d’administration de l’Association du film d’animation[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oleg Iourievitch Roï (en russe : Оле́г Ю́рьевич Рой, de son vrai nom - Rezepkine ; né le 12 octobre 1965 à Magnitogorsk), est un écrivain, scénariste, producteur et personnage public russe, membre du conseil d’administration de l’Association du film d’animation.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oleg_Iourievitch_Ro%C3%AF</t>
+          <t>Oleg_Iourievitch_Roï</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,19 +525,59 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance
-Oleg Roï est né le 12 octobre 1965 dans la ville de Magnitogorsk. Il est diplômé de la faculté de psychologie de l'institut pédagogique de Magnitogorsk avec un diplôme d'enseignant-psychologue. Après un certain temps, il part pour la Suisse, où il vit pendant onze ans et où il se lance dans la littérature[2],[3],[4],[5],[6].
-Création
-L'auteur a écrit plus de 60 romans pour adultes dans des genres variés : prose sentimentale, thriller psychologique, fantastique.
-Selon la Chambre russe du livre, en 2013-2014, Oleg Roï figurait dans le top 10, en 2015-2017 - dans les 20 premiers en Russie parmi les auteurs de fiction pour adultes en termes de circulation annuelle totale de livres publiés, et en 2019 il a pris la 13e place parmi les auteurs de littérature pour enfants les plus publiés en Russie[7],[8],[9].
-Rezepkine a commencé à publier de la littérature pour enfants sous son vrai nom en 2003. La première série de livres a été Les Aventures de Lechik[10].
-En 2012, les premiers livres de la série pour enfants Jinglekids ont été publiés, qui sont ensuite devenus la base de la populaire série animée en 3D. « Jinglekids » a été achetée pour être diffusée par Netflix. La série animée Drakocha Tocha d'Oleg Roy figure dans le top 10 des émissions les plus populaires des chaînes de télévision « Mult » et «Carrousel»[11].
-En novembre 2019, lors de l’exposition MIPCOM à Cannes, Oleg Roï a présenté une nouvelle série d'animation 3D Les Gardiens sur les aventures de la jeunesse du futur[12].
-En 2020, Great Frame, en collaboration avec Riki Group, a annoncé 15 séries animées d'aventure basées sur les œuvres d'Oleg Roï[13],[14].
-Un certain nombre d'œuvres d'Oleg Roï ont été projetées - son roman mystique Maison sans sortie a été filmé à deux reprises - en Russie et aux États-Unis, et la série télévisée Hindou, basée sur le roman Le Sourire d’un chat noir, a été nommée en 2011 pour le 51e Festival de yélévision de Monte-Carlo[15],[16].
-Depuis 2008, pendant quelque temps, il a été vice-président de l'Union des Personnes Handicapées de Russie[17],[18].
-Au début des années 2000, Oleg Roï s'est vu décerner la « La Croix du Chevalier d’Or de la Vaillance et de l’Honneur » de l'Association des écrivains de genres détective et non-détective « Club de détectives » pour sa contribution à la littérature et à la charité[4],[5],[2],[19].
-En 2014, il est devenu le lauréat du prix littéraire « Médaille du nom du lauréat du prix Nobel Ivan Bounine »[20].
+          <t>Enfance</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oleg Roï est né le 12 octobre 1965 dans la ville de Magnitogorsk. Il est diplômé de la faculté de psychologie de l'institut pédagogique de Magnitogorsk avec un diplôme d'enseignant-psychologue. Après un certain temps, il part pour la Suisse, où il vit pendant onze ans et où il se lance dans la littérature.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Oleg_Iourievitch_Roï</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oleg_Iourievitch_Ro%C3%AF</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Création</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'auteur a écrit plus de 60 romans pour adultes dans des genres variés : prose sentimentale, thriller psychologique, fantastique.
+Selon la Chambre russe du livre, en 2013-2014, Oleg Roï figurait dans le top 10, en 2015-2017 - dans les 20 premiers en Russie parmi les auteurs de fiction pour adultes en termes de circulation annuelle totale de livres publiés, et en 2019 il a pris la 13e place parmi les auteurs de littérature pour enfants les plus publiés en Russie.
+Rezepkine a commencé à publier de la littérature pour enfants sous son vrai nom en 2003. La première série de livres a été Les Aventures de Lechik.
+En 2012, les premiers livres de la série pour enfants Jinglekids ont été publiés, qui sont ensuite devenus la base de la populaire série animée en 3D. « Jinglekids » a été achetée pour être diffusée par Netflix. La série animée Drakocha Tocha d'Oleg Roy figure dans le top 10 des émissions les plus populaires des chaînes de télévision « Mult » et «Carrousel».
+En novembre 2019, lors de l’exposition MIPCOM à Cannes, Oleg Roï a présenté une nouvelle série d'animation 3D Les Gardiens sur les aventures de la jeunesse du futur.
+En 2020, Great Frame, en collaboration avec Riki Group, a annoncé 15 séries animées d'aventure basées sur les œuvres d'Oleg Roï,.
+Un certain nombre d'œuvres d'Oleg Roï ont été projetées - son roman mystique Maison sans sortie a été filmé à deux reprises - en Russie et aux États-Unis, et la série télévisée Hindou, basée sur le roman Le Sourire d’un chat noir, a été nommée en 2011 pour le 51e Festival de yélévision de Monte-Carlo,.
+Depuis 2008, pendant quelque temps, il a été vice-président de l'Union des Personnes Handicapées de Russie,.
+Au début des années 2000, Oleg Roï s'est vu décerner la « La Croix du Chevalier d’Or de la Vaillance et de l’Honneur » de l'Association des écrivains de genres détective et non-détective « Club de détectives » pour sa contribution à la littérature et à la charité.
+En 2014, il est devenu le lauréat du prix littéraire « Médaille du nom du lauréat du prix Nobel Ivan Bounine ».
 </t>
         </is>
       </c>
